--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-medicationrequest.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-medicationrequest.xlsx
@@ -654,7 +654,7 @@
     <t>Rp番号(剤グループ番号)についてのsystem値</t>
   </si>
   <si>
-    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOID-urlとして定義された。http://jpfhir.jp/fhir/core/mhlw/IdSystem/Medication-RPGroupNumberで固定される。</t>
   </si>
   <si>
     <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
@@ -663,7 +663,7 @@
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.81</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/IdSystem/Medication-RPGroupNumber</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -785,10 +785,10 @@
     <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
   </si>
   <si>
-    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.100495.20.3.82</t>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値 http://jpfhir.jp/fhir/core/mhlw/IdSystem/MedicationAdministrationIndex</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/mhlw/IdSystem/MedicationAdministrationIndex</t>
   </si>
   <si>
     <t>MedicationRequest.identifier:orderInRp.value</t>
